--- a/Assets/templates/work_order.xlsx
+++ b/Assets/templates/work_order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio Weck\Documents\Bow Valley\Fall 2023\SODV2101 - Rapid Application Development\BusinessManager\Assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio Weck\Documents\Bow Valley\Fall 2023\SODV2101 - Rapid Application Development\Business-Solutions-Clone\Assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18465BC5-4C58-4BE9-A7FD-304DEC38B6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A24108A-70B5-4A39-A78B-F4E2A0F5FCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
@@ -252,17 +252,24 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="14"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -507,7 +514,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -618,25 +625,24 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,22 +655,21 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1107,8 +1112,8 @@
   </sheetPr>
   <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1126,10 +1131,10 @@
       <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1148,18 +1153,18 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="4"/>
       <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="22">
         <f ca="1">TODAY()</f>
-        <v>45252</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,65 +1203,65 @@
     </row>
     <row r="9" spans="2:7" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="21"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="59"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
@@ -1265,10 +1270,10 @@
       <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="15" t="s">
         <v>12</v>
       </c>
@@ -1279,8 +1284,8 @@
     <row r="18" spans="2:18" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24" t="str">
         <f t="shared" ref="G18:G31" si="0">IF(SUM(C18)&gt;0,SUM((C18*F18)),"")</f>
@@ -1290,8 +1295,8 @@
     <row r="19" spans="2:18" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="37"/>
       <c r="G19" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1302,7 +1307,7 @@
       <c r="B20" s="29"/>
       <c r="C20" s="33"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="38"/>
       <c r="G20" s="24" t="str">
         <f>IF(SUM(C20)&gt;0,SUM((C20*F20)),"")</f>
@@ -1312,8 +1317,8 @@
     <row r="21" spans="2:18" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="37"/>
       <c r="G21" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1324,7 +1329,7 @@
       <c r="B22" s="29"/>
       <c r="C22" s="33"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="38"/>
       <c r="G22" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1334,8 +1339,8 @@
     <row r="23" spans="2:18" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="37"/>
       <c r="G23" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1346,7 +1351,7 @@
       <c r="B24" s="29"/>
       <c r="C24" s="33"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="43"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="38"/>
       <c r="G24" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1356,8 +1361,8 @@
     <row r="25" spans="2:18" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="37"/>
       <c r="G25" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1368,7 +1373,7 @@
       <c r="B26" s="29"/>
       <c r="C26" s="33"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="43"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="38"/>
       <c r="G26" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1378,8 +1383,8 @@
     <row r="27" spans="2:18" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="28"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="37"/>
       <c r="G27" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1390,7 +1395,7 @@
       <c r="B28" s="29"/>
       <c r="C28" s="33"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="43"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="38"/>
       <c r="G28" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1400,8 +1405,8 @@
     <row r="29" spans="2:18" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="37"/>
       <c r="G29" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1419,7 +1424,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="33"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="43"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="38"/>
       <c r="G30" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1495,24 +1500,24 @@
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="2:7" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
@@ -1538,38 +1543,35 @@
       <c r="F40" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D24:E24"/>
+  <mergeCells count="28">
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
